--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
   </si>
   <si>
     <t>Formula</t>
@@ -448,14 +442,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -534,13 +528,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -552,18 +546,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -580,13 +574,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -603,13 +597,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -626,10 +620,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -649,10 +643,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -672,10 +666,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -695,10 +689,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -718,108 +712,108 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
@@ -828,21 +822,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -851,44 +845,44 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>41</v>
@@ -897,21 +891,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
@@ -920,44 +914,44 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>48</v>
@@ -966,21 +960,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>50</v>
@@ -989,21 +983,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>52</v>
@@ -1012,21 +1006,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>54</v>
@@ -1035,21 +1029,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>56</v>
@@ -1058,21 +1052,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>58</v>
@@ -1081,12 +1075,12 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
@@ -1095,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>60</v>
@@ -1104,12 +1098,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>61</v>
@@ -1118,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>62</v>
@@ -1127,12 +1121,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
@@ -1141,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>64</v>
@@ -1150,21 +1144,21 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>66</v>
@@ -1173,21 +1167,21 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>68</v>
@@ -1196,21 +1190,21 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>70</v>
@@ -1219,21 +1213,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>72</v>
@@ -1242,21 +1236,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>74</v>
@@ -1265,12 +1259,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
@@ -1279,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>76</v>
@@ -1288,12 +1282,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>77</v>
@@ -1302,7 +1296,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>78</v>
@@ -1311,12 +1305,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>79</v>
@@ -1325,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>80</v>
@@ -1334,12 +1328,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
@@ -1348,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>82</v>
@@ -1357,21 +1351,21 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>84</v>
@@ -1380,21 +1374,21 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>86</v>
@@ -1403,21 +1397,21 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>88</v>
@@ -1426,67 +1420,67 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>48</v>
@@ -1495,44 +1489,44 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>98</v>
@@ -1541,44 +1535,44 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>52</v>
@@ -1587,44 +1581,44 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>102</v>
@@ -1633,44 +1627,44 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>56</v>
@@ -1679,21 +1673,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>58</v>
@@ -1702,21 +1696,21 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>60</v>
@@ -1725,21 +1719,21 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>62</v>
@@ -1748,12 +1742,12 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>63</v>
@@ -1762,7 +1756,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>64</v>
@@ -1771,15 +1765,15 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1788,18 +1782,18 @@
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
@@ -1808,7 +1802,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>108</v>
@@ -1817,12 +1811,12 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
@@ -1831,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>110</v>
@@ -1840,67 +1834,67 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>50</v>
@@ -1909,21 +1903,21 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>52</v>
@@ -1932,21 +1926,21 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>54</v>
@@ -1955,21 +1949,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>56</v>
@@ -1978,21 +1972,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>58</v>
@@ -2001,12 +1995,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>59</v>
@@ -2015,21 +2009,21 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>61</v>
@@ -2038,21 +2032,21 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>63</v>
@@ -2061,53 +2055,53 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>68</v>
@@ -2116,21 +2110,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>70</v>
@@ -2139,21 +2133,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>72</v>
@@ -2162,21 +2156,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>74</v>
@@ -2185,12 +2179,12 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>75</v>
@@ -2199,21 +2193,21 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>77</v>
@@ -2222,21 +2216,21 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>79</v>
@@ -2245,21 +2239,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>81</v>
@@ -2268,53 +2262,53 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>86</v>
@@ -2323,21 +2317,21 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>88</v>
@@ -2346,90 +2340,90 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>123</v>
@@ -2438,30 +2432,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,61 +32,64 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -753,1686 +756,1686 @@
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -47,13 +47,13 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Formula</t>
@@ -359,7 +359,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -457,7 +457,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -445,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1158,7 +1164,7 @@
         <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>46</v>
@@ -1250,7 +1256,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>46</v>
@@ -1365,7 +1371,7 @@
         <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>46</v>
@@ -1437,10 +1443,10 @@
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1451,19 +1457,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1474,19 +1480,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1503,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1520,16 +1526,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>99</v>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1572,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1589,10 +1595,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
@@ -1601,7 +1607,7 @@
         <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1612,7 +1618,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>102</v>
@@ -1621,7 +1627,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>103</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1773,10 +1779,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1785,7 +1791,7 @@
         <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>108</v>
@@ -1805,7 +1811,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>109</v>
@@ -1819,7 +1825,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>110</v>
@@ -1828,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>111</v>
@@ -1842,571 +1848,571 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2417,24 +2423,70 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -365,7 +365,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -463,7 +466,7 @@
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2380,7 +2383,7 @@
         <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
@@ -2400,10 +2403,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -2412,7 +2415,7 @@
         <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2423,10 +2426,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2435,7 +2438,7 @@
         <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>20</v>
@@ -2446,10 +2449,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
@@ -2458,7 +2461,7 @@
         <v>28</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2469,10 +2472,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
@@ -2481,7 +2484,7 @@
         <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2383,7 +2380,7 @@
         <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
@@ -2403,10 +2400,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -2415,7 +2412,7 @@
         <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2426,10 +2423,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2438,7 +2435,7 @@
         <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>20</v>
@@ -2449,10 +2446,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
@@ -2461,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2472,10 +2469,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
@@ -2484,7 +2481,7 @@
         <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2380,7 +2383,7 @@
         <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
@@ -2400,10 +2403,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>16</v>
@@ -2412,7 +2415,7 @@
         <v>93</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2423,10 +2426,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2435,7 +2438,7 @@
         <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>20</v>
@@ -2446,10 +2449,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
@@ -2458,7 +2461,7 @@
         <v>28</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2469,10 +2472,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
@@ -2481,7 +2484,7 @@
         <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -342,6 +342,30 @@
   </si>
   <si>
     <t>luogoFiliazione</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Nato morto</t>
@@ -454,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1837,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>111</v>
@@ -1860,7 +1884,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>113</v>
@@ -1874,605 +1898,605 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>126</v>
@@ -2481,15 +2505,107 @@
         <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -1835,7 +1835,7 @@
         <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>98</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -218,13 +224,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1007,7 +1013,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>46</v>
@@ -1099,7 +1105,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>46</v>
@@ -1214,7 +1220,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
@@ -1237,7 +1243,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>46</v>
@@ -1306,7 +1312,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
@@ -1421,7 +1427,7 @@
         <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>46</v>
@@ -1493,10 +1499,10 @@
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1513,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,16 +1582,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>101</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,10 +1651,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
@@ -1657,7 +1663,7 @@
         <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,10 +1674,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
@@ -1680,7 +1686,7 @@
         <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>106</v>
@@ -1723,10 +1729,10 @@
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,10 +1950,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -1956,7 +1962,7 @@
         <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,10 +1973,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -1979,7 +1985,7 @@
         <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,622 +1996,691 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1289,7 +1295,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>46</v>
@@ -1312,7 +1318,7 @@
         <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
@@ -1450,7 +1456,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -1522,10 +1528,10 @@
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1542,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,16 +1611,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>103</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,10 +1703,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
@@ -1709,7 +1715,7 @@
         <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1720,7 +1726,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>106</v>
@@ -1729,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>107</v>
@@ -1743,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1904,16 +1910,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>113</v>
@@ -1927,7 +1933,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>114</v>
@@ -1936,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>115</v>
@@ -1950,7 +1956,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
@@ -1959,7 +1965,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>117</v>
@@ -1973,7 +1979,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>118</v>
@@ -1982,7 +1988,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>119</v>
@@ -1996,7 +2002,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
@@ -2019,7 +2025,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>122</v>
@@ -2028,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>123</v>
@@ -2042,617 +2048,617 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2663,24 +2669,70 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1479,7 +1485,7 @@
         <v>90</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>46</v>
@@ -1551,10 +1557,10 @@
         <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1571,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1594,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1617,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1634,16 +1640,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>105</v>
@@ -1657,19 +1663,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1686,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1709,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1726,10 +1732,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>16</v>
@@ -1738,7 +1744,7 @@
         <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1749,7 +1755,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>108</v>
@@ -1758,7 +1764,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>109</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1801,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1870,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1893,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1916,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1933,16 +1939,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>115</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
@@ -1965,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>117</v>
@@ -1979,7 +1985,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>118</v>
@@ -1988,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>119</v>
@@ -2002,7 +2008,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
@@ -2011,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>121</v>
@@ -2025,7 +2031,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>122</v>
@@ -2048,7 +2054,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>124</v>
@@ -2057,7 +2063,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>125</v>
@@ -2071,640 +2077,640 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2715,24 +2721,70 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="C98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>30</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Formula</t>
@@ -496,14 +502,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.15625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
@@ -582,36 +588,36 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -628,13 +634,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -651,13 +657,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -674,10 +680,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -697,10 +703,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -720,10 +726,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -743,10 +749,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -766,10 +772,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -788,86 +794,86 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>34</v>
@@ -876,21 +882,21 @@
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
@@ -899,44 +905,44 @@
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>42</v>
@@ -945,21 +951,21 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
@@ -968,44 +974,44 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>49</v>
@@ -1014,21 +1020,21 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>51</v>
@@ -1037,21 +1043,21 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>53</v>
@@ -1060,21 +1066,21 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>55</v>
@@ -1083,21 +1089,21 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>57</v>
@@ -1106,21 +1112,21 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>59</v>
@@ -1129,21 +1135,21 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>61</v>
@@ -1152,12 +1158,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>62</v>
@@ -1166,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>63</v>
@@ -1175,12 +1181,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>64</v>
@@ -1189,7 +1195,7 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>65</v>
@@ -1198,12 +1204,12 @@
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>66</v>
@@ -1212,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>67</v>
@@ -1221,12 +1227,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>68</v>
@@ -1235,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>69</v>
@@ -1244,12 +1250,12 @@
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>70</v>
@@ -1258,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>71</v>
@@ -1267,21 +1273,21 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>73</v>
@@ -1290,21 +1296,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>75</v>
@@ -1313,12 +1319,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>76</v>
@@ -1327,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>77</v>
@@ -1336,12 +1342,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>78</v>
@@ -1350,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>79</v>
@@ -1359,12 +1365,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>80</v>
@@ -1373,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>81</v>
@@ -1382,12 +1388,12 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>82</v>
@@ -1396,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>83</v>
@@ -1405,12 +1411,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>84</v>
@@ -1419,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>85</v>
@@ -1428,12 +1434,12 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>86</v>
@@ -1442,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>87</v>
@@ -1451,12 +1457,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>88</v>
@@ -1465,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>89</v>
@@ -1474,12 +1480,12 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>90</v>
@@ -1488,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>91</v>
@@ -1497,21 +1503,21 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>93</v>
@@ -1520,21 +1526,21 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>95</v>
@@ -1543,21 +1549,21 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>97</v>
@@ -1566,67 +1572,67 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>49</v>
@@ -1635,44 +1641,44 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>107</v>
@@ -1681,44 +1687,44 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>53</v>
@@ -1727,21 +1733,21 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>55</v>
@@ -1750,44 +1756,44 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>111</v>
@@ -1796,44 +1802,44 @@
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>59</v>
@@ -1842,21 +1848,21 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>61</v>
@@ -1865,21 +1871,21 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>63</v>
@@ -1888,21 +1894,21 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>65</v>
@@ -1911,12 +1917,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>66</v>
@@ -1925,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>67</v>
@@ -1934,44 +1940,44 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>117</v>
@@ -1980,12 +1986,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>118</v>
@@ -1994,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>119</v>
@@ -2003,12 +2009,12 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
@@ -2017,7 +2023,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>121</v>
@@ -2026,12 +2032,12 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>122</v>
@@ -2040,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>123</v>
@@ -2049,12 +2055,12 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>124</v>
@@ -2072,12 +2078,12 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>126</v>
@@ -2086,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>127</v>
@@ -2095,67 +2101,67 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>51</v>
@@ -2164,21 +2170,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>53</v>
@@ -2187,21 +2193,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>55</v>
@@ -2210,21 +2216,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>57</v>
@@ -2233,21 +2239,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>59</v>
@@ -2256,21 +2262,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>61</v>
@@ -2279,12 +2285,12 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>62</v>
@@ -2293,21 +2299,21 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>64</v>
@@ -2316,21 +2322,21 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>66</v>
@@ -2339,21 +2345,21 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>68</v>
@@ -2362,53 +2368,53 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>73</v>
@@ -2417,35 +2423,35 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>76</v>
@@ -2454,21 +2460,21 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>78</v>
@@ -2477,21 +2483,21 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>80</v>
@@ -2500,21 +2506,21 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>82</v>
@@ -2523,21 +2529,21 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>84</v>
@@ -2546,21 +2552,21 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>86</v>
@@ -2569,21 +2575,21 @@
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>88</v>
@@ -2592,21 +2598,21 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>90</v>
@@ -2615,53 +2621,53 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>95</v>
@@ -2670,21 +2676,21 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>97</v>
@@ -2693,90 +2699,90 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>141</v>
@@ -2785,7 +2791,30 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -1307,7 +1307,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>48</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -2411,7 +2411,7 @@
         <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>131</v>
@@ -2434,7 +2434,7 @@
         <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>131</v>
@@ -2443,7 +2443,7 @@
         <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>133</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_057.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -502,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1100,7 +1112,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>48</v>
@@ -1123,7 +1135,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>48</v>
@@ -1169,7 +1181,7 @@
         <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>48</v>
@@ -1192,7 +1204,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>48</v>
@@ -1537,7 +1549,7 @@
         <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>48</v>
@@ -1560,7 +1572,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>48</v>
@@ -1609,10 +1621,10 @@
         <v>18</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1635,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1727,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1750,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1773,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1784,19 +1796,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1819,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,16 +1888,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>63</v>
@@ -1899,16 +1911,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>65</v>
@@ -1922,7 +1934,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>66</v>
@@ -1931,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>67</v>
@@ -1945,16 +1957,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>69</v>
@@ -1968,19 +1980,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1991,19 +2003,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2014,16 +2026,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>121</v>
@@ -2037,7 +2049,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>122</v>
@@ -2046,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>123</v>
@@ -2060,7 +2072,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>124</v>
@@ -2069,7 +2081,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>125</v>
@@ -2083,7 +2095,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>126</v>
@@ -2092,7 +2104,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>127</v>
@@ -2106,7 +2118,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>128</v>
@@ -2115,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>129</v>
@@ -2129,691 +2141,783 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>32</v>
       </c>
     </row>
